--- a/demo/public/about_data.xlsx
+++ b/demo/public/about_data.xlsx
@@ -972,7 +972,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
@@ -1006,6 +1006,11 @@
       <c r="B2" s="0" t="n">
         <v>399</v>
       </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>NOT RATED</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="inlineStr">
@@ -1016,6 +1021,11 @@
       <c r="B3" s="0" t="n">
         <v>72</v>
       </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="inlineStr">
@@ -1026,6 +1036,11 @@
       <c r="B4" s="0" t="n">
         <v>78</v>
       </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>PASSED</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="inlineStr">
@@ -1036,6 +1051,11 @@
       <c r="B5" s="0" t="n">
         <v>59</v>
       </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>NOT RATED</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="inlineStr">
@@ -1043,8 +1063,13 @@
           <t>The Birth of a Nation</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="0" t="n">
         <v>165</v>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>NOT RATED</t>
+        </is>
       </c>
     </row>
   </sheetData>
